--- a/data/trans_bre/P19C08-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P19C08-Estudios-trans_bre.xlsx
@@ -662,19 +662,19 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.5962480206160148</v>
+        <v>-0.5631913708855163</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.360342523987194</v>
+        <v>-1.332881431195402</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.439402546257902</v>
+        <v>-1.388364724635959</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.08620819405686794</v>
+        <v>0.08720686756245431</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.8589464850425577</v>
+        <v>-0.8189587352801383</v>
       </c>
       <c r="H5" s="6" t="n">
         <v>-1</v>
@@ -690,22 +690,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.7389084301118163</v>
+        <v>0.7970663655488942</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2544781665905915</v>
+        <v>0.294840897487645</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.4858939647387669</v>
+        <v>0.5003484877468168</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.8232006621927033</v>
+        <v>0.7539019080974758</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>7.686518615886189</v>
+        <v>6.672009492638807</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1.803475908333427</v>
+        <v>1.916061101225318</v>
       </c>
       <c r="I6" s="6" t="inlineStr"/>
       <c r="J6" s="6" t="inlineStr"/>
@@ -745,7 +745,7 @@
         </is>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.5020804854652743</v>
+        <v>-0.5020804854652742</v>
       </c>
     </row>
     <row r="8">
@@ -756,24 +756,24 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.05872300307519654</v>
+        <v>0.04945653451418536</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-0.2966402718824347</v>
+        <v>-0.3679834566996761</v>
       </c>
       <c r="E8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-1.089071555441568</v>
+        <v>-1.043282053628865</v>
       </c>
       <c r="G8" s="6" t="inlineStr"/>
       <c r="H8" s="6" t="n">
-        <v>-0.4988868358474008</v>
+        <v>-0.5269035933779705</v>
       </c>
       <c r="I8" s="6" t="inlineStr"/>
       <c r="J8" s="6" t="n">
-        <v>-0.8040730374366244</v>
+        <v>-0.8430339297947113</v>
       </c>
     </row>
     <row r="9">
@@ -784,24 +784,24 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.9380365517518536</v>
+        <v>0.9197325515453754</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.8644620334299193</v>
+        <v>0.8344217118471492</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.4093173851504138</v>
+        <v>0.3222005404500735</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.0468535488721768</v>
+        <v>0.03170359354321745</v>
       </c>
       <c r="G9" s="6" t="inlineStr"/>
       <c r="H9" s="6" t="n">
-        <v>2.754276526221153</v>
+        <v>2.671094205864017</v>
       </c>
       <c r="I9" s="6" t="inlineStr"/>
       <c r="J9" s="6" t="n">
-        <v>0.2616641569407113</v>
+        <v>0.1866638136673376</v>
       </c>
     </row>
     <row r="10">
@@ -825,7 +825,7 @@
         <v>0.3024417245258179</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.4975220915680567</v>
+        <v>0.4975220915680565</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>-0.2545958247745528</v>
@@ -837,7 +837,7 @@
         <v>1.457114740964403</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>1.602209222896883</v>
+        <v>1.602209222896882</v>
       </c>
     </row>
     <row r="11">
@@ -848,16 +848,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.36040067754817</v>
+        <v>-1.372685749371274</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.343576655986733</v>
+        <v>-1.388589521318518</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.4070846870403934</v>
+        <v>-0.4139761570280789</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.1281555148137368</v>
+        <v>-0.135603518228874</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>-1</v>
@@ -865,7 +865,7 @@
       <c r="H11" s="6" t="inlineStr"/>
       <c r="I11" s="6" t="inlineStr"/>
       <c r="J11" s="6" t="n">
-        <v>-0.6218339162041417</v>
+        <v>-0.7550973537167991</v>
       </c>
     </row>
     <row r="12">
@@ -876,24 +876,24 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.013601920974793</v>
+        <v>1.037160959022356</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.6930349372916887</v>
+        <v>0.8660418968065086</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.513298999524115</v>
+        <v>1.318966865292486</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.368843876635129</v>
+        <v>1.362367346531065</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>4.120746914244955</v>
+        <v>3.924767527147015</v>
       </c>
       <c r="H12" s="6" t="inlineStr"/>
       <c r="I12" s="6" t="inlineStr"/>
       <c r="J12" s="6" t="n">
-        <v>14.46355196875551</v>
+        <v>11.22720281001897</v>
       </c>
     </row>
     <row r="13">
@@ -917,7 +917,7 @@
         <v>0.05214823424807781</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-0.08729031024922564</v>
+        <v>-0.08729031024922573</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5853245397465173</v>
@@ -929,7 +929,7 @@
         <v>0.335654583011233</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.1642589731319476</v>
+        <v>-0.1642589731319478</v>
       </c>
     </row>
     <row r="14">
@@ -940,28 +940,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-0.1464882896342437</v>
+        <v>-0.1455244595567493</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-0.4459770118016768</v>
+        <v>-0.4720668074355357</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-0.1930642936184181</v>
+        <v>-0.163625735720111</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-0.5652734780191817</v>
+        <v>-0.5421160751329629</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.3938399496924989</v>
+        <v>-0.3429017528365528</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.5356784969950703</v>
+        <v>-0.537801586918868</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.8197283261912011</v>
+        <v>-0.8043932443681697</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.6572812222398844</v>
+        <v>-0.6314630029690915</v>
       </c>
     </row>
     <row r="15">
@@ -972,28 +972,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.5632854666168655</v>
+        <v>0.5798479095733343</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3787633362214362</v>
+        <v>0.4038095261922187</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2892239724470176</v>
+        <v>0.3190895305244528</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2119448364559669</v>
+        <v>0.2303826127540863</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>2.77399570378874</v>
+        <v>3.121389724891809</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.9659911382133037</v>
+        <v>1.052940827830851</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>5.17758399203065</v>
+        <v>6.787259863381639</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.6600970335532366</v>
+        <v>0.7090010762963586</v>
       </c>
     </row>
     <row r="16">
